--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Our enemy is not only “Oripathy.” There is no safety for us standing back from this war anymore.
+    <t xml:space="preserve">[name="Amiya"]  Our enemy is not only 'Oripathy.' There is no safety for us standing back from this war anymore.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They retain a territorial claim on Chernobog, even with it under Reunion’s control, even when Ursus never...                                                      
+    <t xml:space="preserve">[name="Amiya"]  They retain a territorial claim on Chernobog, even with it under Reunion’s control, even when Ursus never...                                                      
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ——”The Infected caused this war.”
+    <t xml:space="preserve">[name="Amiya"]  ——'The Infected caused this war.'
 </t>
   </si>
   <si>
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Even if she’s never said so herself. 
+    <t xml:space="preserve">[name="Amiya"]  Even if she’s never said so herself. 
 </t>
   </si>
   <si>
@@ -2500,7 +2500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:00 AM, Wilderness 
+    <t xml:space="preserve">10:00 AM, Wilderness 
 </t>
   </si>
   <si>
@@ -2568,7 +2568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  Those are the “ordinary Ursus civilians” I know. Had they not supported the war, none of these things would’ve happened.
+    <t xml:space="preserve">[name="Firewatch"]  Those are the 'ordinary Ursus civilians' I know. Had they not supported the war, none of these things would’ve happened.
 </t>
   </si>
   <si>
@@ -2592,7 +2592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  Who can I trust? How am I supposed to I believe in the benevolence of Ursus’s “honest folk?”
+    <t xml:space="preserve">[name="Firewatch"]  Who can I trust? How am I supposed to I believe in the benevolence of Ursus’s 'honest folk?'
 </t>
   </si>
   <si>
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Hah... We got the wuss who flies the “Bad Guy” and now this joker.
+    <t xml:space="preserve">[name="Dobermann"]  Hah... We got the wuss who flies the 'Bad Guy' and now this joker.
 </t>
   </si>
   <si>
@@ -2752,7 +2752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pilot"]  Rest assured, you’re riding the “Good Boy,” and he’s a lot noisier than the “Bad Guy!” It’ll be all eyes on us for a solid half hour. Just watch me, Instructor!
+    <t xml:space="preserve">[name="Pilot"]  Rest assured, you’re riding the 'Good Boy,' and he’s a lot noisier than the 'Bad Guy!' It’ll be all eyes on us for a solid half hour. Just watch me, Instructor!
 </t>
   </si>
   <si>
@@ -2768,7 +2768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:00 a.m. Core City Outskirts 
+    <t xml:space="preserve">10:00 a.m. Core City Outskirts 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Rhodes Island Bridge 6:00 AM
+    <t xml:space="preserve">Rhodes Island Bridge 6:00 A.M.
 </t>
   </si>
   <si>
@@ -1916,11 +1916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Fortunately, we’ve already purchased a lot of supplies from Lungmen, which will sustain our operations for a while.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Unfortunately... Some of our operators will shortly be going deep into Chernobog’s core city.
+    <t xml:space="preserve">[name="Amiya"]  Fortunately, we've already purchased a lot of supplies from Lungmen, which will sustain our operations for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Unfortunately... Some of our operators will shortly be going deep into Chernobog's core city.
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But Reunion is still gripped by their madness, even today. They have taken control of Chernobog’s core city, and are driving it into Lungmen.
+    <t xml:space="preserve">[name="Amiya"]  But Reunion is still gripped by their madness, even today. They have taken control of Chernobog's core city, and are driving it into Lungmen.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They retain a territorial claim on Chernobog, even with it under Reunion’s control, even when Ursus never...                                                      
+    <t xml:space="preserve">[name="Amiya"]  They retain a territorial claim on Chernobog, even with it under Reunion's control, even when Ursus never...                                                      
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  No matter who stands behind Reunion, no matter how hard they’ve pushed, no matter who the real mastermind behind all this is: there will be only one truth laid grimly at our feet.
+    <t xml:space="preserve">[name="Amiya"]  No matter who stands behind Reunion, no matter how hard they've pushed, no matter who the real mastermind behind all this is: there will be only one truth laid grimly at our feet.
 </t>
   </si>
   <si>
@@ -2040,7 +2040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If that comes to pass, all Rhodes Island has done will come to nothing. There won’t be a single country in the world that will allow us to treat the Infected, or allow them a normal life.
+    <t xml:space="preserve">[name="Amiya"]  If that comes to pass, all Rhodes Island has done will come to nothing. There won't be a single country in the world that will allow us to treat the Infected, or allow them a normal life.
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Rhodes Island has always been fighting this war. And it’s a difficult war to win.
+    <t xml:space="preserve">[name="Amiya"]  Rhodes Island has always been fighting this war. And it's a difficult war to win.
 </t>
   </si>
   <si>
@@ -2084,7 +2084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Um? Doctor, is there something on my face? I didn’t leave crumbs on it, did I?
+    <t xml:space="preserve">[name="Amiya"]  Um? Doctor, is there something on my face? I didn't leave crumbs on it, did I?
 </t>
   </si>
   <si>
@@ -2104,11 +2104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But I thought about it and realized we’re not that kind of team. It’s not about good or bad morale for us. We need to understand what it is we’re doing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The harder things get, the more we need to tell everyone the truth. We can’t be making our decisions blind.
+    <t xml:space="preserve">[name="Amiya"]  But I thought about it and realized we're not that kind of team. It's not about good or bad morale for us. We need to understand what it is we're doing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The harder things get, the more we need to tell everyone the truth. We can't be making our decisions blind.
 </t>
   </si>
   <si>
@@ -2120,7 +2120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...It’s true. I’m thinking Madame Ch'en will probably steal into the core city alone.
+    <t xml:space="preserve">[name="Amiya"]  ...It's true. I'm thinking Madame Ch'en will probably steal into the core city alone.
 </t>
   </si>
   <si>
@@ -2128,11 +2128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But even carrying around all that, she still didn’t give up, she didn’t run away. She carried it all with her into Chernobog.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  She’s not afraid of betrayal, exile, or death.
+    <t xml:space="preserve">[name="Amiya"]  But even carrying around all that, she still didn't give up, she didn't run away. She carried it all with her into Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She's not afraid of betrayal, exile, or death.
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor, when we get to the core city, we’re also going to do what we can to rescue her.
+    <t xml:space="preserve">[name="Amiya"]  Doctor, when we get to the core city, we're also going to do what we can to rescue her.
 </t>
   </si>
   <si>
@@ -2164,15 +2164,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Sounds pretty generous?;......;I thought you’d be more scared of that hard-ass.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Ah, haha. Doctor, that look on your mask... it’s funny.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ve doubted Madame Ch'en before. I took her for the type who couldn’t change.
+    <t xml:space="preserve">[Decision(options="Sounds pretty generous?;......;I thought you'd be more scared of that hard-ass.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Ah, haha. Doctor, that look on your mask... it's funny.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I've doubted Madame Ch'en before. I took her for the type who couldn't change.
 </t>
   </si>
   <si>
@@ -2180,15 +2180,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’ve never heard anything like that before.;......;That’s an interesting turn of phrase.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh, err, it’s just how I’d describe it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I don’t really know how to explain what I see... and it wouldn’t be right to transmit it to people directly.
+    <t xml:space="preserve">[Decision(options="I've never heard anything like that before.;......;That's an interesting turn of phrase.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, err, it's just how I'd describe it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I don't really know how to explain what I see... and it wouldn't be right to transmit it to people directly.
 </t>
   </si>
   <si>
@@ -2196,23 +2196,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Madame Ch'en isn’t a cold-blooded person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  She’s stern and strict, but that’s exactly why her sense of justice forces her to fight against the darkness in this world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Even if she’s never said so herself. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  So, we’ll go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Sure. I made that promise myself!;Okay.;There’s someone else who wanted me to stop Reunion.", values="1;2;3")]
+    <t xml:space="preserve">[name="Amiya"]  Madame Ch'en isn't a cold-blooded person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She's stern and strict, but that's exactly why her sense of justice forces her to fight against the darkness in this world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even if she's never said so herself. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So, we'll go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Sure. I made that promise myself!;Okay.;There's someone else who wanted me to stop Reunion.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If there’s something we can do to prevent a repeat of Misha’s tragedy, to bring some comfort to FrostNova and her men, and...
+    <t xml:space="preserve">[name="Amiya"]  If there's something we can do to prevent a repeat of Misha's tragedy, to bring some comfort to FrostNova and her men, and...
 </t>
   </si>
   <si>
@@ -2244,7 +2244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ve sent both of you the information.
+    <t xml:space="preserve">[name="Kal'tsit"]  I've sent both of you the information.
 </t>
   </si>
   <si>
@@ -2252,11 +2252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re going to work with me?;......;Am I supposed to be excited?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You could always stay here. It’s up to you. I can’t force you.
+    <t xml:space="preserve">[Decision(options="You're going to work with me?;......;Am I supposed to be excited?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You could always stay here. It's up to you. I can't force you.
 </t>
   </si>
   <si>
@@ -2264,7 +2264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m listening.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm listening.
 </t>
   </si>
   <si>
@@ -2272,11 +2272,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  And I hope you’ll set aside whatever prejudices you may have toward Dr. Kal'tsit, Dr. {@nickname}... from the things she’s said before. At least for the time being.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname} has amnesia. Rhodes Island has no reliable treatment to restore the Doctor’s memory in just two short weeks.
+    <t xml:space="preserve">[name="Amiya"]  And I hope you'll set aside whatever prejudices you may have toward Dr. Kal'tsit, Dr. {@nickname}... from the things she's said before. At least for the time being.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname} has amnesia. Rhodes Island has no reliable treatment to restore the Doctor's memory in just two short weeks.
 </t>
   </si>
   <si>
@@ -2288,11 +2288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  And Dr. {@nickname}, I don’t want you doubting Dr. Kal'tsit’s intentions just because of what she’s said.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  She’s the person that...
+    <t xml:space="preserve">[name="Amiya"]  And Dr. {@nickname}, I don't want you doubting Dr. Kal'tsit's intentions just because of what she's said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She's the person that...
 </t>
   </si>
   <si>
@@ -2316,19 +2316,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Water under the bridge isn’t an option for us. Morality won’t turn us into better people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m not refusing your proposal, Amiya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s just, forgiveness as a form of kindness, of waiving your right to anger, will only make us weak beyond measure.
+    <t xml:space="preserve">[name="Kal'tsit"]  Water under the bridge isn't an option for us. Morality won't turn us into better people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not refusing your proposal, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's just, forgiveness as a form of kindness, of waiving your right to anger, will only make us weak beyond measure.
 </t>
   </si>
   <si>
@@ -2336,7 +2336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But for now, I’ll shelve my prejudices. Let’s deal with the core city first.
+    <t xml:space="preserve">[name="Kal'tsit"]  But for now, I'll shelve my prejudices. Let's deal with the core city first.
 </t>
   </si>
   <si>
@@ -2344,7 +2344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Amiya, I’m standing next to you.;......;Look forward to working with you, Kal'tsit.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Amiya, I'm standing next to you.;......;Look forward to working with you, Kal'tsit.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2352,15 +2352,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  No, it’s not like I think that’s a bad thing! I’m just... err, a little slow on the uptake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...I trust that you’ll be there for me when it counts, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But what I wanted back before was for you to guide me, and take care of everything that I couldn’t do in those difficult times...
+    <t xml:space="preserve">[name="Amiya"]  No, it's not like I think that's a bad thing! I'm just... err, a little slow on the uptake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I trust that you'll be there for me when it counts, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But what I wanted back before was for you to guide me, and take care of everything that I couldn't do in those difficult times...
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh, um... I’m okay, Dr. Kal’tsit. I’ve learned not to rely on other people anymore.
+    <t xml:space="preserve">[name="Amiya"]  Oh, um... I'm okay, Dr. Kal'tsit. I've learned not to rely on other people anymore.
 </t>
   </si>
   <si>
@@ -2380,11 +2380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Now, Doctor, we stand shoulder to shoulder. Ever since you came back to me, I’ve been waiting for the chance... to tell you... to tell you...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ve grown up. I don’t need you, or Dr. Kal'tsit, or... um... I don’t need you to protect me anymore.
+    <t xml:space="preserve">[name="Amiya"]  Now, Doctor, we stand shoulder to shoulder. Ever since you came back to me, I've been waiting for the chance... to tell you... to tell you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I've grown up. I don't need you, or Dr. Kal'tsit, or... um... I don't need you to protect me anymore.
 </t>
   </si>
   <si>
@@ -2392,15 +2392,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ll get the results to prove that you were right to trust in me, Doctor. I promise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Hey! Shoulder to shoulder is just an expression. Don’t call me short! I’m still growing...! Ugh! I’ll be as tall as you in no time, Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...I’m just happy, Doctor. Yeah... just... very happy.
+    <t xml:space="preserve">[name="Amiya"]  I'll get the results to prove that you were right to trust in me, Doctor. I promise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hey! Shoulder to shoulder is just an expression. Don't call me short! I'm still growing...! Ugh! I'll be as tall as you in no time, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I'm just happy, Doctor. Yeah... just... very happy.
 </t>
   </si>
   <si>
@@ -2412,11 +2412,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I don’t mind if the Doctor doesn’t want to share.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I don’t want to pry...
+    <t xml:space="preserve">[name="Amiya"]  I don't mind if the Doctor doesn't want to share.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I don't want to pry...
 </t>
   </si>
   <si>
@@ -2424,11 +2424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s just, Doctor, even if it’s just a little...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you don’t have to take that.
+    <t xml:space="preserve">[name="Amiya"]  It's just, Doctor, even if it's just a little...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you don't have to take that.
 </t>
   </si>
   <si>
@@ -2444,11 +2444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, that’s too much...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The Doctor just doesn’t like to mince words. I’m know you go straight to the root of the problem, right?
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, that's too much...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The Doctor just doesn't like to mince words. I'm know you go straight to the root of the problem, right?
 </t>
   </si>
   <si>
@@ -2456,15 +2456,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you’re willing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I didn’t think it would be this easy. Honestly, I was even expecting you to weave in some traps and pitfalls among your words.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...But what’s the harm?
+    <t xml:space="preserve">[name="Kal'tsit"]  If you're willing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I didn't think it would be this easy. Honestly, I was even expecting you to weave in some traps and pitfalls among your words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...But what's the harm?
 </t>
   </si>
   <si>
@@ -2472,7 +2472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What’s the plan?", values="1")]
+    <t xml:space="preserve">[Decision(options="What's the plan?", values="1")]
 </t>
   </si>
   <si>
@@ -2484,7 +2484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="First, we’ll need a way into the core city.;How do we get there?;We just walk up to Talulah and introduce ourselves, right?", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="First, we'll need a way into the core city.;How do we get there?;We just walk up to Talulah and introduce ourselves, right?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2492,15 +2492,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Take a look at the report. I’ll cover every part of the plan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  In four hours, we’ll trigger a small sandstorm in the path of the Chernobog core city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00 AM, Wilderness 
+    <t xml:space="preserve">[name="Kal'tsit"]  Take a look at the report. I'll cover every part of the plan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In four hours, we'll trigger a small sandstorm in the path of the Chernobog core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 A.M., Wilderness 
 </t>
   </si>
   <si>
@@ -2532,11 +2532,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  The Chernobog core city command tower has a wide line of sight. This won’t work without camouflage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Firewatch"]  They didn’t even try to hide the fact that the core city was basically designed as a warship. The Empire thrives through violence and conquest.
+    <t xml:space="preserve">[name="Firewatch"]  The Chernobog core city command tower has a wide line of sight. This won't work without camouflage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  They didn't even try to hide the fact that the core city was basically designed as a warship. The Empire thrives through violence and conquest.
 </t>
   </si>
   <si>
@@ -2544,19 +2544,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  Designs put ideas into peoples’ heads, and those ideas turn around and influence design. Living in an environment like this will breed a natural hostility towards outsiders, sooner or later.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  ...It’s not fair to the ordinary Ursus civilians to paint them with such a broad brush.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Engineering Operator"]  Oh... um... I’ll grab the backup cables.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Firewatch"]  But, how many crimes did Ursus commit against my hometown? They’ll never be able to wash the blood off their hands.
+    <t xml:space="preserve">[name="Firewatch"]  Designs put ideas into peoples' heads, and those ideas turn around and influence design. Living in an environment like this will breed a natural hostility towards outsiders, sooner or later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...It's not fair to the ordinary Ursus civilians to paint them with such a broad brush.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Oh... um... I'll grab the backup cables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  But, how many crimes did Ursus commit against my hometown? They'll never be able to wash the blood off their hands.
 </t>
   </si>
   <si>
@@ -2568,7 +2568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  Those are the 'ordinary Ursus civilians' I know. Had they not supported the war, none of these things would’ve happened.
+    <t xml:space="preserve">[name="Firewatch"]  Those are the 'ordinary Ursus civilians' I know. Had they not supported the war, none of these things would've happened.
 </t>
   </si>
   <si>
@@ -2576,11 +2576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Firewatch, this may not be Kazimierz land we’re standing on. But still, we will not see those atrocities repeated.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  It doesn’t matter whether the enemy is Ursus or not. Reunion may call themselves Ursus, or they may not. But we’re not here to hurt people. We’re here to stop people from getting hurt.
+    <t xml:space="preserve">[name="Nearl"]  Firewatch, this may not be Kazimierz land we're standing on. But still, we will not see those atrocities repeated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  It doesn't matter whether the enemy is Ursus or not. Reunion may call themselves Ursus, or they may not. But we're not here to hurt people. We're here to stop people from getting hurt.
 </t>
   </si>
   <si>
@@ -2592,15 +2592,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Firewatch"]  Who can I trust? How am I supposed to I believe in the benevolence of Ursus’s 'honest folk?'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Firewatch"]  I don’t blame the knights. Especially not you, Nearl. But I keep thinking back to the time I spent fighting Ursus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Firewatch"]  I don’t trust them, and I don’t trust Kazimierz.
+    <t xml:space="preserve">[name="Firewatch"]  Who can I trust? How am I supposed to I believe in the benevolence of Ursus's 'honest folk?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  I don't blame the knights. Especially not you, Nearl. But I keep thinking back to the time I spent fighting Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  I don't trust them, and I don't trust Kazimierz.
 </t>
   </si>
   <si>
@@ -2616,11 +2616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  I didn’t have a chance to help you back then, but this time, we fight. Not for our homes, but to put an end to Ursus’s atrocities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  Even if we’re only here as support, I’m still prepared. To fight for what I believe in, to die for you.
+    <t xml:space="preserve">[name="Nearl"]  I didn't have a chance to help you back then, but this time, we fight. Not for our homes, but to put an end to Ursus's atrocities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Even if we're only here as support, I'm still prepared. To fight for what I believe in, to die for you.
 </t>
   </si>
   <si>
@@ -2656,7 +2656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="This is our disguise?;......;So we’ve already chosen our camouflage. ", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="This is our disguise?;......;So we've already chosen our camouflage. ", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2668,31 +2668,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Sometimes it’s snow, sometimes it’s grassy plains, sometimes it’s a swamp... we have different techniques every time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Lungmen is here in the deserts and barrenlands, so use the sand to cover your tracks. That’s the trick.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’m not so sure about this.;That’s not enough.;Maybe we shouldn’t rely totally on this one tactic?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s just a way to cover our tracks. Rhodes Island isn’t about unilateral operations. Successful infiltration is the sum of a lot of moving parts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The information the Azazel Clinic gave us authenticated the Chernobog blueprints I have. That means we have a solid picture of what the core city’s lower levels look like.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  When the time comes, we’ll enter through the drainage system in the foundation. But we’ll need bait.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We can’t hook our prey without bait.
+    <t xml:space="preserve">[name="Amiya"]  Sometimes it's snow, sometimes it's grassy plains, sometimes it's a swamp... we have different techniques every time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Lungmen is here in the deserts and barrenlands, so use the sand to cover your tracks. That's the trick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'm not so sure about this.;That's not enough.;Maybe we shouldn't rely totally on this one tactic?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's just a way to cover our tracks. Rhodes Island isn't about unilateral operations. Successful infiltration is the sum of a lot of moving parts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The information the Azazel Clinic gave us authenticated the Chernobog blueprints I have. That means we have a solid picture of what the core city's lower levels look like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  When the time comes, we'll enter through the drainage system in the foundation. But we'll need bait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We can't hook our prey without bait.
 </t>
   </si>
   <si>
@@ -2700,31 +2700,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Heh... Yes. You’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But given enough time, even the worst hunter can tell the difference between prey and bait. We’ll have to stay out of sight long enough to prevent that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  You don’t need us to land for this op, do you, Instructor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  There isn’t a good spot on the core city, and Reunion isn’t exactly poorly equipped. They’ve got casters too. Landing would be trucky.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  No need. Just make it look like we’re going to land, but keep circling the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  We didn’t bring a tactical team. Not much we can do with just the two of us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  Yeah, didn’t think of that.
+    <t xml:space="preserve">[name="Kal'tsit"]  Heh... Yes. You're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But given enough time, even the worst hunter can tell the difference between prey and bait. We'll have to stay out of sight long enough to prevent that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  You don't need us to land for this op, do you, Instructor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  There isn't a good spot on the core city, and Reunion isn't exactly poorly equipped. They've got casters too. Landing would be trucky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  No need. Just make it look like we're going to land, but keep circling the city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  We didn't bring a tactical team. Not much we can do with just the two of us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Yeah, didn't think of that.
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  You can keep us up for a half an hour, can’t you?
+    <t xml:space="preserve">[name="Dobermann"]  You can keep us up for a half an hour, can't you?
 </t>
   </si>
   <si>
@@ -2752,11 +2752,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pilot"]  Rest assured, you’re riding the 'Good Boy,' and he’s a lot noisier than the 'Bad Guy!' It’ll be all eyes on us for a solid half hour. Just watch me, Instructor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Careful now. Don’t get us shot down.
+    <t xml:space="preserve">[name="Pilot"]  Rest assured, you're riding the 'Good Boy,' and he's a lot noisier than the 'Bad Guy!' It'll be all eyes on us for a solid half hour. Just watch me, Instructor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Careful now. Don't get us shot down.
 </t>
   </si>
   <si>
@@ -2776,19 +2776,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]  What’s that...? Up in the sky?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  They’re flying?! The enemy brought a new weapon! What country is it from?! Just shoot it down already!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  We don’t know what it’s carrying. We can’t let it land!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Don’t panic! If it drops low enough, we’ll light it up! Just don’t let it out of your sight!
+    <t xml:space="preserve">[name="Reunion Member"]  What's that...? Up in the sky?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  They're flying?! The enemy brought a new weapon! What country is it from?! Just shoot it down already!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  We don't know what it's carrying. We can't let it land!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Don't panic! If it drops low enough, we'll light it up! Just don't let it out of your sight!
 </t>
   </si>
   <si>
@@ -2808,11 +2808,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pilot"]  Don’t worry!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  If something goes wrong, we won’t have time to react. The crash will pulverize us. Won’t even be able to identify our bodies. The great equalizer!
+    <t xml:space="preserve">[name="Pilot"]  Don't worry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  If something goes wrong, we won't have time to react. The crash will pulverize us. Won't even be able to identify our bodies. The great equalizer!
 </t>
   </si>
   <si>
@@ -2820,7 +2820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Amiya, we’ve managed to distract the enemy. They’re convinced we’re preparing to land. Begin the operation!
+    <t xml:space="preserve">[name="Dobermann"]  Amiya, we've managed to distract the enemy. They're convinced we're preparing to land. Begin the operation!
 </t>
   </si>
   <si>
@@ -2828,7 +2828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Our equipment is active. We won’t let them ruin our plans. Madam Firewatch, cover me!
+    <t xml:space="preserve">[name="Nearl"]  Our equipment is active. We won't let them ruin our plans. Madam Firewatch, cover me!
 </t>
   </si>
   <si>
@@ -2984,7 +2984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  그게 바로 로도스가 지금까지 이 전쟁에 몸담고 있는 이유입니다. 이 전쟁에서, 우리가 승리할 가능성은 희박하겠죠.
+    <t xml:space="preserve">[name="아미야"]  그게 바로 로도스 아일랜드가 지금까지 이 전쟁에 몸담고 있는 이유입니다. 이 전쟁에서, 우리가 승리할 가능성은 희박하겠죠.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-03_beg.xlsx
@@ -3316,7 +3316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  지금은 박사님과, 드디어 어깨를 나란히 하고 있어요. 박사님과 재회한 순간부터, 저는 계속 박사님께 이런 말을 할 기회가 생기길 기다렸어요…….
+    <t xml:space="preserve">[name="아미야"]  지금은 박사님과, 드디어 어깨를 나란히 하고 있어요. 박사님과 재회한 순간부터, 저는 계속 박사님께 이런 말을 할 기회가 생기길 기다렸어요……
 </t>
   </si>
   <si>
